--- a/数据整理/stocks/A股/上证主板/600863-内蒙华电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600863-内蒙华电.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,13 +1091,825 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>149.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3052</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6956</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3637</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0710</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8580</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6375</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4549</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>14</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600863-内蒙华电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600863-内蒙华电.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.36</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5406</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1903,13 +1946,1067 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5594</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4321</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9560</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9202</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5515</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4140</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4120</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011677</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011678</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>14</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600863-内蒙华电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600863-内蒙华电.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2937,7 +2938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2948,17 +2949,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2968,14 +2989,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.29</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2984,14 +3027,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.36</v>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8064</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3000,13 +3065,1121 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0504</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9517</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8868</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8270</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6522</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4910</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4882</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4668</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>14</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600863-内蒙华电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600863-内蒙华电.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,585 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>398001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中海优质成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5396</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003857</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源周期优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2968</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.29</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004952</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴全恒益债券A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>23.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2298</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.36</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161611</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通内需驱动混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>63.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1759</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501029</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1504</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002252</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>融通成长30灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>54.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0622</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003858</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源周期优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0600</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001678</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>英大国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0531</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000916</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源股息率100强等权重股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0403</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001351</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001252</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中海进取收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>77.88</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>23.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010355</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1042,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1093,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009887</t>
+          <t>010379</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合A</t>
+          <t>广发均衡优选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>149.06</t>
+          <t>58.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.82</t>
+          <t>65.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.3052</t>
+          <t>2.9583</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1131,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010379</t>
+          <t>008297</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发均衡优选混合A</t>
+          <t>广发价值优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70.75</t>
+          <t>29.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>64.97</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6956</t>
+          <t>1.8064</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1169,32 +681,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008297</t>
+          <t>009887</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发价值优势混合</t>
+          <t>广发稳健优选六个月持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.57</t>
+          <t>19.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>65.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.0150</t>
+          <t>1.0504</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1217,26 +729,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.84</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.59</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3637</t>
+          <t>0.9517</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1245,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011194</t>
+          <t>270022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+          <t>广发内需增长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.22</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>74.72</t>
+          <t>79.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.1243</t>
+          <t>0.8868</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1283,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>270022</t>
+          <t>011194</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发内需增长混合A</t>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.91</t>
+          <t>13.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.54</t>
+          <t>75.16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.0710</t>
+          <t>0.8270</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1321,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011134</t>
+          <t>009888</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发价值优选混合A</t>
+          <t>广发稳健优选六个月持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.75</t>
+          <t>12.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>65.96</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8580</t>
+          <t>0.6522</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1359,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009888</t>
+          <t>011134</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合C</t>
+          <t>广发价值优选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15.07</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>64.82</t>
+          <t>95.15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6375</t>
+          <t>0.4910</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1407,26 +919,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>74.72</t>
+          <t>75.16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4549</t>
+          <t>0.4882</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1435,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001239</t>
+          <t>006593</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长盛国企改革主题灵活配置混合</t>
+          <t>博道中证500指数增强A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>30.71</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>92.03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2085</t>
+          <t>0.4668</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1473,36 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010380</t>
+          <t>160526</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发均衡优选混合C</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>64.97</t>
+          <t>85.85</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1695</t>
+          <t>0.2527</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1511,32 +1023,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501029</t>
+          <t>010380</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+          <t>广发均衡优选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.85</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>65.97</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1476</t>
+          <t>0.1851</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1549,32 +1061,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011135</t>
+          <t>006594</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发价值优选混合C</t>
+          <t>博道中证500指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>92.03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1242</t>
+          <t>0.1520</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1587,36 +1099,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>011135</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>广发价值优选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.89</t>
+          <t>95.15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0535</t>
+          <t>0.1130</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1625,32 +1137,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>080005</t>
+          <t>007831</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长盛量化红利混合</t>
+          <t>博道伍佰智航股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>76.06</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0475</t>
+          <t>0.1014</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1663,36 +1175,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010740</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>汇安核心价值混合A</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>86.97</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0413</t>
+          <t>0.0969</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1701,36 +1213,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>005945</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>工银瑞信可转债优选债券A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>50.81</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0184</t>
+          <t>0.0845</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1739,36 +1251,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010741</t>
+          <t>007832</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>汇安核心价值混合C</t>
+          <t>博道伍佰智航股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0626</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1777,36 +1289,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011183</t>
+          <t>008420</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发内需增长混合C</t>
+          <t>广发招泰混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.54</t>
+          <t>22.16</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0285</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1815,36 +1327,376 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>000822</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>东海美丽中国灵活配置混合</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>87.47</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2938,7 +2790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2989,36 +2841,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010379</t>
+          <t>009887</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发均衡优选混合A</t>
+          <t>广发稳健优选六个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.35</t>
+          <t>149.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>65.97</t>
+          <t>64.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9583</t>
+          <t>6.3052</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3027,36 +2879,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008297</t>
+          <t>010379</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发价值优势混合</t>
+          <t>广发均衡优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.23</t>
+          <t>70.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>64.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8064</t>
+          <t>2.6956</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3065,32 +2917,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009887</t>
+          <t>008297</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合A</t>
+          <t>广发价值优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.97</t>
+          <t>36.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>65.96</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0504</t>
+          <t>2.0150</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3113,26 +2965,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>24.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>89.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9517</t>
+          <t>1.3637</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3141,36 +2993,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>270022</t>
+          <t>011194</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发内需增长混合A</t>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.06</t>
+          <t>22.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.82</t>
+          <t>74.72</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8868</t>
+          <t>1.1243</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3179,36 +3031,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011194</t>
+          <t>270022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+          <t>广发内需增长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.67</t>
+          <t>17.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75.16</t>
+          <t>79.54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8270</t>
+          <t>1.0710</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -3217,36 +3069,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009888</t>
+          <t>011134</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合C</t>
+          <t>广发价值优选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.40</t>
+          <t>13.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>65.96</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6522</t>
+          <t>0.8580</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -3255,36 +3107,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011134</t>
+          <t>009888</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发价值优选混合A</t>
+          <t>广发稳健优选六个月持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>15.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95.15</t>
+          <t>64.82</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4910</t>
+          <t>0.6375</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -3303,26 +3155,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>75.16</t>
+          <t>74.72</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4882</t>
+          <t>0.4549</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -3331,36 +3183,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006593</t>
+          <t>001239</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博道中证500指数增强A</t>
+          <t>长盛国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>30.71</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.03</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4668</t>
+          <t>0.2085</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -3369,36 +3221,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>160526</t>
+          <t>010380</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+          <t>广发均衡优选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.85</t>
+          <t>64.97</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2527</t>
+          <t>0.1695</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -3407,32 +3259,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010380</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发均衡优选混合C</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>10.85</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>65.97</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1851</t>
+          <t>0.1476</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -3445,32 +3297,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006594</t>
+          <t>011135</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博道中证500指数增强C</t>
+          <t>广发价值优选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.03</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1520</t>
+          <t>0.1242</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -3483,36 +3335,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011135</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发价值优选混合C</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>95.15</t>
+          <t>92.89</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1130</t>
+          <t>0.0535</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -3521,32 +3373,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>76.06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1014</t>
+          <t>0.0475</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -3559,36 +3411,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>010740</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>汇安核心价值混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>86.97</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0969</t>
+          <t>0.0413</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -3597,36 +3449,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005945</t>
+          <t>001252</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>工银瑞信可转债优选债券A</t>
+          <t>中海进取收益灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>50.81</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0845</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3635,36 +3487,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>010741</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
+          <t>汇安核心价值混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0626</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -3673,36 +3525,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008420</t>
+          <t>011183</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发招泰混合A</t>
+          <t>广发内需增长混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>79.54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0285</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -3711,376 +3563,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>000822</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>东海美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>87.47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0180</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011183</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发内需增长混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>79.82</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005946</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>工银瑞信可转债优选债券C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>50.81</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008421</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>广发招泰混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>22.16</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>012297</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>东兴宸瑞量化混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.73</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006140</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广发集嘉债券A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>20.22</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006141</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>广发集嘉债券C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>20.22</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>012298</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>东兴宸瑞量化混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>89.73</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>000822</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>东海美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>88.57</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007234</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>85.85</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4094,96 +3606,584 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.73</v>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5396</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.29</v>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.36</v>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.64</v>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600863-内蒙华电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600863-内蒙华电.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>11.73</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>12.29</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>17.36</v>
+        <v>12.29</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.64</v>
       </c>
     </row>
@@ -549,6 +566,1466 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2987</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8605</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9302</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8289</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8181</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6719</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5768</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4818</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3898</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013680</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012880</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013681</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012881</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015592</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1704,7 +3181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2784,7 +4261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3600,7 +5077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600863-内蒙华电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600863-内蒙华电.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>10.03</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>11.73</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>12.29</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>17.36</v>
+        <v>12.29</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.64</v>
       </c>
     </row>
@@ -566,6 +583,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1959</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5300</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3527</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银可转债债券</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>49.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2025,7 +2820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3181,7 +3976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4261,7 +5056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5077,7 +5872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
